--- a/OtherNote/账户模板.xlsx
+++ b/OtherNote/账户模板.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\XYNoteBook\OtherNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB5516-393A-4521-8C2F-2258D5CC1ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD695BF-3440-411E-92D4-BC1DD5BCC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9521C0E4-D693-4394-B115-CF2D0DA3047C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9521C0E4-D693-4394-B115-CF2D0DA3047C}"/>
   </bookViews>
   <sheets>
     <sheet name="模板1（简洁）" sheetId="5" r:id="rId1"/>
-    <sheet name="模板2" sheetId="4" r:id="rId2"/>
-    <sheet name="规则" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="模板2" sheetId="4" r:id="rId3"/>
+    <sheet name="规则" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +89,45 @@
   <si>
     <t>开始 —— 条件格式 —— 新建规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花呗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想刃7000K（7499）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉他课（=2499-500）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不买电脑总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
   </si>
 </sst>
 </file>
@@ -838,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F84B3A7-93AE-45AE-B01E-3CDD71ECCFF2}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1682,6 +1729,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDCB0C4-57EE-4EF1-825C-D2B50D59DD10}">
+  <dimension ref="B1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>SUM(E3:M3)</f>
+        <v>2557.9766666666665</v>
+      </c>
+      <c r="E3">
+        <f>7499/6</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="G3">
+        <v>666.33333333333337</v>
+      </c>
+      <c r="I3">
+        <v>41.5</v>
+      </c>
+      <c r="K3">
+        <v>150.31</v>
+      </c>
+      <c r="M3">
+        <v>450</v>
+      </c>
+      <c r="O3">
+        <f>SUM(G3:M3)</f>
+        <v>1308.1433333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="0">SUM(E4:M4)</f>
+        <v>2538.2766666666666</v>
+      </c>
+      <c r="E4">
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="G4">
+        <v>666.33333333333337</v>
+      </c>
+      <c r="I4">
+        <v>41.5</v>
+      </c>
+      <c r="K4">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="M4">
+        <v>450</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O6" si="1">SUM(G4:M4)</f>
+        <v>1288.4433333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2538.2766666666666</v>
+      </c>
+      <c r="E5">
+        <f>7499/6</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="G5">
+        <v>666.33333333333337</v>
+      </c>
+      <c r="I5">
+        <v>41.5</v>
+      </c>
+      <c r="K5">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="M5">
+        <v>450</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1288.4433333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1830.4433333333332</v>
+      </c>
+      <c r="E6">
+        <f>7499/6</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="K6">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="M6">
+        <v>450</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>580.61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1699.8333333333333</v>
+      </c>
+      <c r="E7">
+        <f>7499/6</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="M7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1699.8333333333333</v>
+      </c>
+      <c r="E8">
+        <f>7499/6</f>
+        <v>1249.8333333333333</v>
+      </c>
+      <c r="M8">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AC7C2E-CC73-4728-80DD-5DE602DB8AA2}">
   <dimension ref="A1:R37"/>
   <sheetViews>
@@ -2543,7 +2777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E604A39-A792-46CA-9466-39F27F5A85FF}">
   <dimension ref="B3:D14"/>
   <sheetViews>
